--- a/Daisy-xls/ResearchPages/English/research-treatment.xlsx
+++ b/Daisy-xls/ResearchPages/English/research-treatment.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -491,7 +491,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,18 +500,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -534,20 +528,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -564,21 +573,11 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -609,15 +608,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -626,6 +616,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -929,11 +932,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -943,12 +946,12 @@
     <col min="3" max="3" width="70.42578125" style="4" customWidth="1"/>
     <col min="4" max="4" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="30" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="12"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="6" max="6" width="10.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="9"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>140</v>
       </c>
@@ -968,827 +971,936 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="28">
+        <v>903677</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="18">
+      <c r="E2" s="11"/>
+      <c r="F2" s="14">
         <v>42045</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="28">
+        <v>901913</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="11"/>
       <c r="F3" s="5">
         <v>42034</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="28">
+        <v>899525</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="5">
         <v>42027</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="15" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="28">
+        <v>883852</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="5">
         <v>41990</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="28">
+        <v>873808</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="5">
         <v>41985</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="28">
+        <v>862420</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="22">
+      <c r="E7" s="12"/>
+      <c r="F7" s="18">
         <v>41975</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="28">
+        <v>833061</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="22">
+      <c r="E8" s="12"/>
+      <c r="F8" s="18">
         <v>41906</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="28">
+        <v>810173</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18">
+      <c r="E9" s="12"/>
+      <c r="F9" s="14">
         <v>41852</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="28">
+        <v>777000</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18">
+      <c r="E10" s="12"/>
+      <c r="F10" s="14">
         <v>41789</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="28">
+        <v>764905</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18">
+      <c r="E11" s="12"/>
+      <c r="F11" s="14">
         <v>41767</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="28">
+        <v>731273</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="22">
+      <c r="E12" s="12"/>
+      <c r="F12" s="18">
         <v>41736</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="28">
+        <v>725920</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="18">
+      <c r="E13" s="12"/>
+      <c r="F13" s="14">
         <v>41718</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="28">
+        <v>698539</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="22">
+      <c r="E14" s="12"/>
+      <c r="F14" s="18">
         <v>41669</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="28">
+        <v>674711</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18">
+      <c r="E15" s="12"/>
+      <c r="F15" s="14">
         <v>41617</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="28">
+        <v>662171</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="18">
+      <c r="E16" s="12"/>
+      <c r="F16" s="14">
         <v>41599</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="28">
+        <v>675725</v>
+      </c>
       <c r="C17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="12" t="s">
         <v>104</v>
       </c>
       <c r="F17" s="8">
         <v>41553</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="15">
+    <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="28">
+        <v>621732</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="22">
+      <c r="E18" s="12"/>
+      <c r="F18" s="18">
         <v>41512</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="28">
+        <v>545310</v>
+      </c>
       <c r="C19" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="12" t="s">
         <v>105</v>
       </c>
       <c r="F19" s="8">
         <v>41449</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="15">
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="28">
+        <v>576429</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="18">
+      <c r="E20" s="12"/>
+      <c r="F20" s="14">
         <v>41427</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="15">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="28">
+        <v>571449</v>
+      </c>
       <c r="C21" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="12" t="s">
         <v>106</v>
       </c>
       <c r="F21" s="8">
         <v>41408</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="28">
+        <v>550989</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="22">
+      <c r="E22" s="12"/>
+      <c r="F22" s="18">
         <v>41381</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="15">
+    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="15" t="s">
+      <c r="B23" s="28">
+        <v>546310</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="18">
+      <c r="E23" s="12"/>
+      <c r="F23" s="14">
         <v>41372</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="28">
+        <v>511136</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="18">
+      <c r="E24" s="12"/>
+      <c r="F24" s="14">
         <v>41319</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="15">
+    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="28">
+        <v>457112</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="18">
+      <c r="E25" s="12"/>
+      <c r="F25" s="14">
         <v>41214</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="15">
+    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="28">
+        <v>430360</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>95</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="20">
         <v>41170</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="28">
+        <v>416992</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="18">
+      <c r="E27" s="12"/>
+      <c r="F27" s="14">
         <v>41148</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="15">
+    <row r="28" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="28">
+        <v>822285</v>
+      </c>
       <c r="C28" s="6" t="s">
         <v>49</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="12" t="s">
         <v>128</v>
       </c>
       <c r="F28" s="8">
         <v>41086</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="15">
+    <row r="29" spans="1:8" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="28">
+        <v>826233</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="24">
         <v>41044</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14" t="s">
+      <c r="G29" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="15">
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="28">
+        <v>823710</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="24">
         <v>41030</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14" t="s">
+      <c r="G30" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="15">
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="28">
+        <v>822301</v>
+      </c>
       <c r="C31" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="24">
         <v>41016</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="15">
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="28">
+        <v>167985</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="18">
         <v>40927.958333333336</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="15">
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="28">
+        <v>822289</v>
+      </c>
       <c r="C33" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="24">
         <v>40848</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="15">
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="28">
+        <v>822302</v>
+      </c>
       <c r="C34" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="24">
         <v>40764</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="15">
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="28">
+        <v>822294</v>
+      </c>
       <c r="C35" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="24">
         <v>40666</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="15">
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="28">
+        <v>824934</v>
+      </c>
       <c r="C36" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="24">
         <v>40652</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="15">
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+    </row>
+    <row r="37" spans="1:8" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="28">
+        <v>822281</v>
+      </c>
       <c r="C37" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="24">
         <v>40624</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="15">
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+    </row>
+    <row r="38" spans="1:8" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="28">
+        <v>822283</v>
+      </c>
       <c r="C38" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="24">
         <v>40554</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="15">
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+    </row>
+    <row r="39" spans="1:8" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="28">
+        <v>821964</v>
+      </c>
       <c r="C39" s="6" t="s">
         <v>71</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="24">
         <v>40358</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="15">
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+    </row>
+    <row r="40" spans="1:8" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="16"/>
+      <c r="B40" s="28">
+        <v>822293</v>
+      </c>
       <c r="C40" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="24">
         <v>40316</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="15">
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="28">
+        <v>823928</v>
+      </c>
       <c r="C41" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="24">
         <v>40316</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="27" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="15">
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="1:8" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="28">
+        <v>819785</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="24">
         <v>40302</v>
       </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14" t="s">
+      <c r="G42" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="15">
+      <c r="H42" s="25"/>
+    </row>
+    <row r="43" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="28">
+        <v>824909</v>
+      </c>
       <c r="C43" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="12" t="s">
         <v>119</v>
       </c>
       <c r="F43" s="8">
         <v>40274</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="15">
+    <row r="44" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="28">
+        <v>822287</v>
+      </c>
       <c r="C44" s="6" t="s">
         <v>97</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="12" t="s">
         <v>120</v>
       </c>
       <c r="F44" s="8">
         <v>40232</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="15">
+    <row r="45" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="16"/>
+      <c r="B45" s="28">
+        <v>824935</v>
+      </c>
       <c r="C45" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="12" t="s">
         <v>121</v>
       </c>
       <c r="F45" s="8">
         <v>40078</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="15">
+    <row r="46" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="16"/>
+      <c r="B46" s="28">
+        <v>826381</v>
+      </c>
       <c r="C46" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D46" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="12" t="s">
         <v>126</v>
       </c>
       <c r="F46" s="8">
         <v>40064</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="15">
+    <row r="47" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="16"/>
+      <c r="B47" s="28">
+        <v>822290</v>
+      </c>
       <c r="C47" s="6" t="s">
         <v>77</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="12" t="s">
         <v>122</v>
       </c>
       <c r="F47" s="8">
         <v>40036</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="15">
+    <row r="48" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="16"/>
+      <c r="B48" s="28">
+        <v>819880</v>
+      </c>
       <c r="C48" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="12" t="s">
         <v>123</v>
       </c>
       <c r="F48" s="8">
@@ -1796,35 +1908,39 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="15">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16" t="s">
+      <c r="B49" s="28">
+        <v>15215</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="29">
+      <c r="F49" s="22">
         <v>39287</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="15">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="16"/>
+      <c r="B50" s="28">
+        <v>819881</v>
+      </c>
       <c r="C50" s="6" t="s">
         <v>134</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="12" t="s">
         <v>136</v>
       </c>
       <c r="F50" s="8">
@@ -1832,17 +1948,19 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="15">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="16"/>
+      <c r="B51" s="28">
+        <v>819882</v>
+      </c>
       <c r="C51" s="6" t="s">
         <v>89</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="12" t="s">
         <v>125</v>
       </c>
       <c r="F51" s="8">
@@ -1850,17 +1968,19 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="15">
+      <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="16"/>
+      <c r="B52" s="28">
+        <v>819883</v>
+      </c>
       <c r="C52" s="6" t="s">
         <v>75</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="12" t="s">
         <v>127</v>
       </c>
       <c r="F52" s="8">
@@ -1868,20 +1988,22 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="15">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16" t="s">
+      <c r="B53" s="28">
+        <v>14114</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="22">
         <v>38503</v>
       </c>
     </row>
